--- a/biology/Zoologie/Idea_idea/Idea_idea.xlsx
+++ b/biology/Zoologie/Idea_idea/Idea_idea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idea idea est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Idea.
 </t>
@@ -511,15 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idea idea a été décrit par Carl von Linné en 1763 sous le nom initial de Papilio idea[1].
-Sous-espèces
-Idea idea idea; présent à  Ampon et à Serang dans les Moluques.
-Idea idea aza Boisduval, 1832; présent à Buru.
-Idea idea sula (de Nicéville, 1900); présent aux Îles Sula
-Nom vernaculaire
-Idea idea se nomme Rice Paper en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea idea a été décrit par Carl von Linné en 1763 sous le nom initial de Papilio idea.
 </t>
         </is>
       </c>
@@ -545,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea idea est un grand papillon blanc veiné de noir et orné  aux ailes antérieures de quelques taches noires.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Idea idea idea; présent à  Ampon et à Serang dans les Moluques.
+Idea idea aza Boisduval, 1832; présent à Buru.
+Idea idea sula (de Nicéville, 1900); présent aux Îles Sula</t>
         </is>
       </c>
     </row>
@@ -576,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea idea se nomme Rice Paper en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +628,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea idea est un grand papillon blanc veiné de noir et orné  aux ailes antérieures de quelques taches noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Idea_idea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_idea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Idea idea est présent en Indonésie dans l'archipel des Moluques[1].
-Biotope
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea idea est présent en Indonésie dans l'archipel des Moluques.
+</t>
         </is>
       </c>
     </row>
